--- a/data/trans_orig/P6708-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{159748D5-2FBE-42D5-995A-74CA885237D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9862D13C-FF32-4023-BC04-C508B892C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA07F516-86ED-487A-BEE0-893641C04727}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C59D98E-586A-480D-9B8F-8D866834A11C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="522">
   <si>
     <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -76,1528 +76,1534 @@
     <t>6,93%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>8,65%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>24,45%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5360E8-4649-453C-8001-A0CF1A3AA65C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E581D9-6EEE-438E-8720-BFE1995CA346}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2444,10 +2450,10 @@
         <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2456,13 +2462,13 @@
         <v>52746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -2471,13 +2477,13 @@
         <v>133618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,13 +2498,13 @@
         <v>80544</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -2507,13 +2513,13 @@
         <v>52623</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -2522,13 +2528,13 @@
         <v>133167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2549,13 @@
         <v>191088</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>116</v>
@@ -2558,13 +2564,13 @@
         <v>127074</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>305</v>
@@ -2573,13 +2579,13 @@
         <v>318163</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2600,13 @@
         <v>222617</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>134</v>
@@ -2609,13 +2615,13 @@
         <v>140056</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>346</v>
@@ -2624,13 +2630,13 @@
         <v>362673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2651,13 @@
         <v>336518</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -2660,13 +2666,13 @@
         <v>197175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>496</v>
@@ -2675,13 +2681,13 @@
         <v>533694</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,7 +2743,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2749,13 +2755,13 @@
         <v>12651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2764,13 +2770,13 @@
         <v>18401</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2779,13 +2785,13 @@
         <v>31051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2806,13 @@
         <v>16308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2815,13 +2821,13 @@
         <v>11987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2830,13 +2836,13 @@
         <v>28296</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2857,13 @@
         <v>58693</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -2866,13 +2872,13 @@
         <v>54954</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -2881,13 +2887,13 @@
         <v>113647</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2908,13 @@
         <v>89844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -2917,13 +2923,13 @@
         <v>62237</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -2932,13 +2938,13 @@
         <v>152081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2959,13 @@
         <v>138762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -2968,13 +2974,13 @@
         <v>87318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -2983,13 +2989,13 @@
         <v>226079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3063,13 @@
         <v>106200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -3072,13 +3078,13 @@
         <v>89869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>180</v>
@@ -3087,13 +3093,13 @@
         <v>196070</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3114,13 @@
         <v>106454</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>72</v>
@@ -3123,13 +3129,13 @@
         <v>77061</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>168</v>
@@ -3138,13 +3144,13 @@
         <v>183515</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3165,13 @@
         <v>287000</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="H24" s="7">
         <v>184</v>
@@ -3174,13 +3180,13 @@
         <v>202460</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>463</v>
@@ -3189,13 +3195,13 @@
         <v>489460</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3216,13 @@
         <v>346585</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>211</v>
@@ -3225,10 +3231,10 @@
         <v>224846</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>179</v>
@@ -3372,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799F1B76-2EF8-4F2A-971E-060A7D47DC54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BD8839-5216-46E6-AED2-8DB7EBDA0E23}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3532,7 +3538,7 @@
         <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3553,13 @@
         <v>26085</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3562,13 +3568,13 @@
         <v>15070</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3577,13 +3583,13 @@
         <v>41155</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3604,13 @@
         <v>32140</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -3613,13 +3619,13 @@
         <v>16331</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -3628,13 +3634,13 @@
         <v>48471</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3655,13 @@
         <v>21214</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3664,13 +3670,13 @@
         <v>12535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -3679,13 +3685,13 @@
         <v>33748</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3706,13 @@
         <v>38513</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -3715,10 +3721,10 @@
         <v>17215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>233</v>
@@ -3733,10 +3739,10 @@
         <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3810,13 @@
         <v>94604</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -3819,13 +3825,13 @@
         <v>73510</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -3834,13 +3840,13 @@
         <v>168114</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3861,13 @@
         <v>126528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -3870,13 +3876,13 @@
         <v>97880</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>216</v>
@@ -3885,13 +3891,13 @@
         <v>224408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,10 +3912,10 @@
         <v>266933</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>255</v>
@@ -3936,13 +3942,13 @@
         <v>453853</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3963,13 @@
         <v>211560</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>159</v>
@@ -3972,13 +3978,13 @@
         <v>162313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>359</v>
@@ -3987,13 +3993,13 @@
         <v>373873</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4014,13 @@
         <v>225572</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -4023,13 +4029,13 @@
         <v>132151</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>336</v>
@@ -4041,10 +4047,10 @@
         <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,7 +4106,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4112,13 +4118,13 @@
         <v>15644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4127,10 +4133,10 @@
         <v>35524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>282</v>
@@ -4148,7 +4154,7 @@
         <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4169,13 @@
         <v>41883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -4244,13 +4250,13 @@
         <v>164283</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4271,13 @@
         <v>89120</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -4280,13 +4286,13 @@
         <v>64558</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -4295,13 +4301,13 @@
         <v>153679</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4322,13 @@
         <v>108423</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>87</v>
@@ -4331,13 +4337,13 @@
         <v>94369</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>188</v>
@@ -4346,13 +4352,13 @@
         <v>202793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4426,13 @@
         <v>135414</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -4435,13 +4441,13 @@
         <v>119970</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>238</v>
@@ -4450,13 +4456,13 @@
         <v>255384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4477,13 @@
         <v>194496</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>156</v>
@@ -4486,13 +4492,13 @@
         <v>158207</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>339</v>
@@ -4501,13 +4507,13 @@
         <v>352702</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4528,13 @@
         <v>394611</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H24" s="7">
         <v>271</v>
@@ -4537,13 +4543,13 @@
         <v>271997</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>636</v>
@@ -4552,13 +4558,13 @@
         <v>666608</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4579,13 @@
         <v>321894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>237</v>
@@ -4588,13 +4594,13 @@
         <v>239406</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>540</v>
@@ -4603,13 +4609,13 @@
         <v>561300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4630,13 @@
         <v>372509</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>231</v>
@@ -4639,13 +4645,13 @@
         <v>243735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>576</v>
@@ -4654,13 +4660,13 @@
         <v>616244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,7 +4741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6C7ED3-406E-4328-9639-4B4C75A65E07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E90AA76-B9F8-439F-BD70-4BD384A32394}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4752,7 +4758,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4859,13 +4865,13 @@
         <v>3976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4874,13 +4880,13 @@
         <v>4604</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4889,13 +4895,13 @@
         <v>8579</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4916,13 @@
         <v>5352</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4925,13 +4931,13 @@
         <v>1976</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4940,13 +4946,13 @@
         <v>7328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4967,13 @@
         <v>14239</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4976,13 +4982,13 @@
         <v>8253</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -4991,13 +4997,13 @@
         <v>22491</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5018,13 @@
         <v>6401</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5027,13 +5033,13 @@
         <v>2044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5042,13 +5048,13 @@
         <v>8445</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>395</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5069,13 @@
         <v>3420</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5078,13 +5084,13 @@
         <v>2745</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5093,13 +5099,13 @@
         <v>6164</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>404</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5173,13 @@
         <v>41650</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>407</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -5182,13 +5188,13 @@
         <v>56631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>406</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -5197,13 +5203,13 @@
         <v>98281</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5224,13 @@
         <v>45847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>412</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -5233,13 +5239,13 @@
         <v>40783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>416</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M11" s="7">
         <v>83</v>
@@ -5248,13 +5254,13 @@
         <v>86630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,10 +5275,10 @@
         <v>79105</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>421</v>
@@ -5284,13 +5290,13 @@
         <v>67985</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>165</v>
@@ -5299,13 +5305,13 @@
         <v>147090</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5326,13 @@
         <v>47427</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -5335,13 +5341,13 @@
         <v>39263</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -5350,13 +5356,13 @@
         <v>86690</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,7 +5469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5478,10 +5484,10 @@
         <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5505,13 +5511,13 @@
         <v>41949</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5532,13 @@
         <v>10177</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5541,10 +5547,10 @@
         <v>8275</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>453</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>454</v>
@@ -5556,7 +5562,7 @@
         <v>18451</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>455</v>
@@ -5595,10 +5601,10 @@
         <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>461</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -5607,13 +5613,13 @@
         <v>59037</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>463</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>464</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5634,13 @@
         <v>26142</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -5643,13 +5649,13 @@
         <v>29785</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -5658,13 +5664,13 @@
         <v>55927</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5685,13 @@
         <v>39790</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -5697,10 +5703,10 @@
         <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
@@ -5709,13 +5715,13 @@
         <v>69218</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>479</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5789,13 @@
         <v>67630</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>483</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>107</v>
@@ -5798,13 +5804,13 @@
         <v>81179</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M22" s="7">
         <v>168</v>
@@ -5813,13 +5819,13 @@
         <v>148809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5840,13 @@
         <v>61375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -5849,13 +5855,13 @@
         <v>51035</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>494</v>
+        <v>391</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M23" s="7">
         <v>112</v>
@@ -5864,13 +5870,13 @@
         <v>112410</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5891,13 @@
         <v>126178</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H24" s="7">
         <v>142</v>
@@ -5900,13 +5906,13 @@
         <v>102440</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>179</v>
+        <v>498</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>354</v>
+        <v>499</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M24" s="7">
         <v>254</v>
@@ -5915,13 +5921,13 @@
         <v>228618</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5942,13 @@
         <v>79969</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
@@ -5951,13 +5957,13 @@
         <v>71092</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>508</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="M25" s="7">
         <v>170</v>
@@ -5966,13 +5972,13 @@
         <v>151061</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5993,13 @@
         <v>160130</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H26" s="7">
         <v>99</v>
@@ -6002,13 +6008,13 @@
         <v>77753</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>43</v>
+        <v>518</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
@@ -6017,13 +6023,13 @@
         <v>237884</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6708-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9862D13C-FF32-4023-BC04-C508B892C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63289E42-F131-4629-9D9A-1F979ADA3776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C59D98E-586A-480D-9B8F-8D866834A11C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62F74BC1-39C1-402F-9755-3CB5C99AE1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="521">
   <si>
     <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -76,1413 +76,1416 @@
     <t>6,93%</t>
   </si>
   <si>
-    <t>3,91%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>17,58%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>10,07%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>27,17%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
     <t>21,17%</t>
   </si>
   <si>
@@ -1507,9 +1510,6 @@
     <t>8,29%</t>
   </si>
   <si>
-    <t>16,72%</t>
-  </si>
-  <si>
     <t>13,31%</t>
   </si>
   <si>
@@ -1595,9 +1595,6 @@
   </si>
   <si>
     <t>24,45%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
   </si>
   <si>
     <t>21,4%</t>
@@ -2015,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E581D9-6EEE-438E-8720-BFE1995CA346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B47CCC-446C-4E48-B08B-0D2314390605}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2220,19 +2217,19 @@
         <v>22053</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>35</v>
@@ -2241,13 +2238,13 @@
         <v>37219</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -2256,13 +2253,13 @@
         <v>20431</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -2271,19 +2268,19 @@
         <v>57650</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>33</v>
@@ -2292,13 +2289,13 @@
         <v>34124</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2307,13 +2304,13 @@
         <v>22554</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -2322,19 +2319,19 @@
         <v>56678</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>86</v>
@@ -2343,13 +2340,13 @@
         <v>89437</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -2358,13 +2355,13 @@
         <v>65819</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>148</v>
@@ -2373,13 +2370,13 @@
         <v>155256</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2391,13 @@
         <v>183059</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>130</v>
@@ -2409,13 +2406,13 @@
         <v>139977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>305</v>
@@ -2424,18 +2421,18 @@
         <v>323037</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2447,13 +2444,13 @@
         <v>80872</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2462,13 +2459,13 @@
         <v>52746</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>124</v>
@@ -2477,13 +2474,13 @@
         <v>133618</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2495,13 @@
         <v>80544</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -2513,10 +2510,10 @@
         <v>52623</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>75</v>
@@ -2540,7 +2537,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>189</v>
@@ -2591,7 +2588,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>212</v>
@@ -2642,7 +2639,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>315</v>
@@ -2702,13 +2699,13 @@
         <v>911640</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>532</v>
@@ -2717,13 +2714,13 @@
         <v>569674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1395</v>
@@ -2732,13 +2729,13 @@
         <v>1481314</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,10 +2821,10 @@
         <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2836,19 +2833,19 @@
         <v>28296</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>55</v>
@@ -2857,13 +2854,13 @@
         <v>58693</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -2872,13 +2869,13 @@
         <v>54954</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -2887,19 +2884,19 @@
         <v>113647</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>84</v>
@@ -2908,13 +2905,13 @@
         <v>89844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -2923,13 +2920,13 @@
         <v>62237</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -2938,19 +2935,19 @@
         <v>152081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>124</v>
@@ -2959,13 +2956,13 @@
         <v>138762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -2974,13 +2971,13 @@
         <v>87318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -2989,7 +2986,7 @@
         <v>226079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>149</v>
@@ -3010,13 +3007,13 @@
         <v>316257</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>210</v>
@@ -3025,13 +3022,13 @@
         <v>234897</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>496</v>
@@ -3040,13 +3037,13 @@
         <v>551154</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3060,13 @@
         <v>106200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -3078,13 +3075,13 @@
         <v>89869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>180</v>
@@ -3093,13 +3090,13 @@
         <v>196070</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3147,13 @@
         <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>279</v>
@@ -3165,13 +3162,13 @@
         <v>287000</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H24" s="7">
         <v>184</v>
@@ -3195,19 +3192,19 @@
         <v>489460</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>329</v>
@@ -3216,13 +3213,13 @@
         <v>346585</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>211</v>
@@ -3231,13 +3228,13 @@
         <v>224846</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>540</v>
@@ -3246,19 +3243,19 @@
         <v>571431</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>525</v>
@@ -3267,13 +3264,13 @@
         <v>564717</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>320</v>
@@ -3282,13 +3279,13 @@
         <v>350312</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>845</v>
@@ -3297,13 +3294,13 @@
         <v>915029</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3315,13 @@
         <v>1410956</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>872</v>
@@ -3333,13 +3330,13 @@
         <v>944548</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2196</v>
@@ -3348,18 +3345,18 @@
         <v>2355504</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BD8839-5216-46E6-AED2-8DB7EBDA0E23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE842DB0-8F98-41A7-A3AB-397E7AF868DD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3395,7 +3392,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3502,13 +3499,13 @@
         <v>25167</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3517,13 +3514,13 @@
         <v>10936</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -3532,13 +3529,13 @@
         <v>36103</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3550,13 @@
         <v>26085</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3568,13 +3565,13 @@
         <v>15070</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3583,19 +3580,19 @@
         <v>41155</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>30</v>
@@ -3604,13 +3601,13 @@
         <v>32140</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -3619,13 +3616,13 @@
         <v>16331</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -3634,19 +3631,19 @@
         <v>48471</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>21</v>
@@ -3655,13 +3652,13 @@
         <v>21214</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3670,13 +3667,13 @@
         <v>12535</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -3685,19 +3682,19 @@
         <v>33748</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>35</v>
@@ -3706,13 +3703,13 @@
         <v>38513</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -3721,10 +3718,10 @@
         <v>17215</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>233</v>
@@ -3757,13 +3754,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3772,13 +3769,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3787,18 +3784,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3843,7 +3840,7 @@
         <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>244</v>
@@ -3879,10 +3876,10 @@
         <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>216</v>
@@ -3891,19 +3888,19 @@
         <v>224408</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>249</v>
@@ -3912,13 +3909,13 @@
         <v>266933</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>186</v>
@@ -3927,13 +3924,13 @@
         <v>186920</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>435</v>
@@ -3942,19 +3939,19 @@
         <v>453853</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>200</v>
@@ -3963,13 +3960,13 @@
         <v>211560</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>159</v>
@@ -3978,13 +3975,13 @@
         <v>162313</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>359</v>
@@ -3993,19 +3990,19 @@
         <v>373873</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>209</v>
@@ -4014,13 +4011,13 @@
         <v>225572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>127</v>
@@ -4029,13 +4026,13 @@
         <v>132151</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>336</v>
@@ -4044,13 +4041,13 @@
         <v>357724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4062,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -4080,13 +4077,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -4095,13 +4092,13 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4115,13 @@
         <v>15644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4133,13 +4130,13 @@
         <v>35524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4148,13 +4145,13 @@
         <v>51167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4166,13 @@
         <v>41883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -4184,13 +4181,13 @@
         <v>45256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -4199,19 +4196,19 @@
         <v>87139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>86</v>
@@ -4220,13 +4217,13 @@
         <v>95537</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>69</v>
@@ -4235,13 +4232,13 @@
         <v>68746</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>155</v>
@@ -4250,19 +4247,19 @@
         <v>164283</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>82</v>
@@ -4271,13 +4268,13 @@
         <v>89120</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -4286,13 +4283,13 @@
         <v>64558</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -4301,19 +4298,19 @@
         <v>153679</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>101</v>
@@ -4322,13 +4319,13 @@
         <v>108423</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>87</v>
@@ -4337,13 +4334,13 @@
         <v>94369</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>188</v>
@@ -4352,13 +4349,13 @@
         <v>202793</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4370,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -4388,13 +4385,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -4403,13 +4400,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4423,13 @@
         <v>135414</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -4441,13 +4438,13 @@
         <v>119970</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>47</v>
       </c>
       <c r="M22" s="7">
         <v>238</v>
@@ -4456,7 +4453,7 @@
         <v>255384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>325</v>
@@ -4495,10 +4492,10 @@
         <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>339</v>
@@ -4507,19 +4504,19 @@
         <v>352702</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>365</v>
@@ -4528,13 +4525,13 @@
         <v>394611</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>271</v>
@@ -4543,13 +4540,13 @@
         <v>271997</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>636</v>
@@ -4558,7 +4555,7 @@
         <v>666608</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>272</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>342</v>
@@ -4570,7 +4567,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>303</v>
@@ -4609,19 +4606,19 @@
         <v>561300</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>345</v>
@@ -4630,10 +4627,10 @@
         <v>372509</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>354</v>
@@ -4645,13 +4642,13 @@
         <v>243735</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>576</v>
@@ -4660,13 +4657,13 @@
         <v>616244</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4678,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4696,13 +4693,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4711,18 +4708,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E90AA76-B9F8-439F-BD70-4BD384A32394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C4AD7A-431C-4D2B-8513-E76D768DCF31}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4758,7 +4755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4865,13 +4862,13 @@
         <v>3976</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4880,13 +4877,13 @@
         <v>4604</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4895,13 +4892,13 @@
         <v>8579</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4913,13 @@
         <v>5352</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4931,7 +4928,7 @@
         <v>1976</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>29</v>
+        <v>373</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>374</v>
@@ -4958,7 +4955,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>13</v>
@@ -5009,7 +5006,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -5018,13 +5015,13 @@
         <v>6401</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5033,13 +5030,13 @@
         <v>2044</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5048,19 +5045,19 @@
         <v>8445</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -5069,13 +5066,13 @@
         <v>3420</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5084,13 +5081,13 @@
         <v>2745</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5099,13 +5096,13 @@
         <v>6164</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5117,13 @@
         <v>33387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5135,13 +5132,13 @@
         <v>19621</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -5150,18 +5147,18 @@
         <v>53008</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5173,13 +5170,13 @@
         <v>41650</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -5188,7 +5185,7 @@
         <v>56631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>408</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>409</v>
@@ -5224,13 +5221,13 @@
         <v>45847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>414</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -5239,10 +5236,10 @@
         <v>40783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>416</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>417</v>
@@ -5266,7 +5263,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>71</v>
@@ -5278,7 +5275,7 @@
         <v>375</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>416</v>
+        <v>199</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>421</v>
@@ -5290,13 +5287,13 @@
         <v>67985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>90</v>
+        <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M12" s="7">
         <v>165</v>
@@ -5305,19 +5302,19 @@
         <v>147090</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>44</v>
@@ -5326,13 +5323,13 @@
         <v>47427</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -5341,13 +5338,13 @@
         <v>39263</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -5356,19 +5353,19 @@
         <v>86690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>58</v>
@@ -5377,13 +5374,13 @@
         <v>116920</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -5392,13 +5389,13 @@
         <v>45581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -5407,13 +5404,13 @@
         <v>162502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5425,13 @@
         <v>330948</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>328</v>
@@ -5443,13 +5440,13 @@
         <v>250244</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>574</v>
@@ -5458,13 +5455,13 @@
         <v>581192</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5478,13 @@
         <v>22005</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5496,10 +5493,10 @@
         <v>19944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>446</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>447</v>
@@ -5511,13 +5508,13 @@
         <v>41949</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>448</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,7 +5529,7 @@
         <v>10177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>450</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>451</v>
@@ -5550,7 +5547,7 @@
         <v>453</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>454</v>
@@ -5574,7 +5571,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>28</v>
@@ -5613,19 +5610,19 @@
         <v>59037</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>463</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>26</v>
@@ -5664,7 +5661,7 @@
         <v>55927</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>470</v>
@@ -5676,7 +5673,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>34</v>
@@ -5721,7 +5718,7 @@
         <v>478</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5733,13 @@
         <v>130948</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>145</v>
@@ -5751,13 +5748,13 @@
         <v>113634</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>260</v>
@@ -5766,13 +5763,13 @@
         <v>244582</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,7 +5792,7 @@
         <v>480</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>107</v>
@@ -5804,13 +5801,13 @@
         <v>81179</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>168</v>
@@ -5819,13 +5816,13 @@
         <v>148809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5837,13 @@
         <v>61375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>489</v>
+        <v>211</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -5858,7 +5855,7 @@
         <v>490</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>491</v>
@@ -5882,7 +5879,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>112</v>
@@ -5933,7 +5930,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>77</v>
@@ -5984,7 +5981,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>96</v>
@@ -6023,13 +6020,13 @@
         <v>237884</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6041,13 @@
         <v>495283</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>505</v>
@@ -6059,13 +6056,13 @@
         <v>383499</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>899</v>
@@ -6074,18 +6071,18 @@
         <v>878782</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6708-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63289E42-F131-4629-9D9A-1F979ADA3776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B49C910-91BF-4F93-9E19-5A63B89F4F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62F74BC1-39C1-402F-9755-3CB5C99AE1CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBEEFE8F-F759-40DE-B4C6-4B34DDC85C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="520">
   <si>
     <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -76,55 +76,58 @@
     <t>6,93%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>9,72%</t>
   </si>
   <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -133,1474 +136,1468 @@
     <t>20,33%</t>
   </si>
   <si>
-    <t>14,54%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>27,07%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B47CCC-446C-4E48-B08B-0D2314390605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF38843-D308-42EE-B525-F16DBBAD9D85}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2217,19 +2214,19 @@
         <v>22053</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>35</v>
@@ -2238,13 +2235,13 @@
         <v>37219</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -2253,13 +2250,13 @@
         <v>20431</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>53</v>
@@ -2268,19 +2265,19 @@
         <v>57650</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>33</v>
@@ -2289,13 +2286,13 @@
         <v>34124</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2304,13 +2301,13 @@
         <v>22554</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -2319,19 +2316,19 @@
         <v>56678</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>86</v>
@@ -2340,13 +2337,13 @@
         <v>89437</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -2355,13 +2352,13 @@
         <v>65819</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>148</v>
@@ -2370,13 +2367,13 @@
         <v>155256</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2388,13 @@
         <v>183059</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>130</v>
@@ -2406,13 +2403,13 @@
         <v>139977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>305</v>
@@ -2421,18 +2418,18 @@
         <v>323037</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2444,10 +2441,10 @@
         <v>80872</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>63</v>
@@ -2498,10 +2495,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -2510,13 +2507,13 @@
         <v>52623</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -2525,19 +2522,19 @@
         <v>133167</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>189</v>
@@ -2546,13 +2543,13 @@
         <v>191088</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
         <v>116</v>
@@ -2561,13 +2558,13 @@
         <v>127074</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>305</v>
@@ -2576,19 +2573,19 @@
         <v>318163</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>212</v>
@@ -2597,13 +2594,13 @@
         <v>222617</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>134</v>
@@ -2612,13 +2609,13 @@
         <v>140056</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>346</v>
@@ -2627,19 +2624,19 @@
         <v>362673</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>315</v>
@@ -2648,13 +2645,13 @@
         <v>336518</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -2663,13 +2660,13 @@
         <v>197175</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>496</v>
@@ -2678,13 +2675,13 @@
         <v>533694</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2696,13 @@
         <v>911640</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>532</v>
@@ -2714,13 +2711,13 @@
         <v>569674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1395</v>
@@ -2729,18 +2726,18 @@
         <v>1481314</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2752,13 +2749,13 @@
         <v>12651</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2767,13 +2764,13 @@
         <v>18401</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2782,13 +2779,13 @@
         <v>31051</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2800,13 @@
         <v>16308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2818,13 +2815,13 @@
         <v>11987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2833,19 +2830,19 @@
         <v>28296</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>55</v>
@@ -2854,13 +2851,13 @@
         <v>58693</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -2869,13 +2866,13 @@
         <v>54954</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -2884,19 +2881,19 @@
         <v>113647</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>84</v>
@@ -2905,13 +2902,13 @@
         <v>89844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -2920,13 +2917,13 @@
         <v>62237</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -2935,19 +2932,19 @@
         <v>152081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>124</v>
@@ -2956,13 +2953,13 @@
         <v>138762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -2971,13 +2968,13 @@
         <v>87318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -2986,13 +2983,13 @@
         <v>226079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3004,13 @@
         <v>316257</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>210</v>
@@ -3022,13 +3019,13 @@
         <v>234897</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>496</v>
@@ -3037,13 +3034,13 @@
         <v>551154</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3057,13 @@
         <v>106200</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -3075,13 +3072,13 @@
         <v>89869</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>180</v>
@@ -3090,13 +3087,13 @@
         <v>196070</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3108,13 @@
         <v>106454</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>72</v>
@@ -3126,13 +3123,13 @@
         <v>77061</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>168</v>
@@ -3141,19 +3138,19 @@
         <v>183515</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>279</v>
@@ -3162,13 +3159,13 @@
         <v>287000</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>184</v>
@@ -3177,13 +3174,13 @@
         <v>202460</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>463</v>
@@ -3192,7 +3189,7 @@
         <v>489460</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>172</v>
@@ -3204,7 +3201,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>329</v>
@@ -3216,10 +3213,10 @@
         <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>211</v>
@@ -3228,13 +3225,13 @@
         <v>224846</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>540</v>
@@ -3243,19 +3240,19 @@
         <v>571431</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>525</v>
@@ -3264,13 +3261,13 @@
         <v>564717</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>320</v>
@@ -3279,13 +3276,13 @@
         <v>350312</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>845</v>
@@ -3294,13 +3291,13 @@
         <v>915029</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3312,13 @@
         <v>1410956</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>872</v>
@@ -3330,13 +3327,13 @@
         <v>944548</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>2196</v>
@@ -3345,18 +3342,18 @@
         <v>2355504</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE842DB0-8F98-41A7-A3AB-397E7AF868DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120CE9A4-F95F-4D89-B2BE-0E0CF0BB9DC0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3392,7 +3389,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3499,13 +3496,13 @@
         <v>25167</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3514,13 +3511,13 @@
         <v>10936</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -3529,13 +3526,13 @@
         <v>36103</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3547,13 @@
         <v>26085</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3565,13 +3562,13 @@
         <v>15070</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3580,19 +3577,19 @@
         <v>41155</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>30</v>
@@ -3643,7 +3640,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>21</v>
@@ -3694,7 +3691,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>35</v>
@@ -3736,10 +3733,10 @@
         <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3751,13 @@
         <v>143118</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>72</v>
@@ -3769,13 +3766,13 @@
         <v>72087</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>206</v>
@@ -3784,18 +3781,18 @@
         <v>215205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3807,13 +3804,13 @@
         <v>94604</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -3822,13 +3819,13 @@
         <v>73510</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -3837,13 +3834,13 @@
         <v>168114</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3855,13 @@
         <v>126528</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -3873,10 +3870,10 @@
         <v>97880</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>249</v>
@@ -3891,16 +3888,16 @@
         <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>249</v>
@@ -3909,13 +3906,13 @@
         <v>266933</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>186</v>
@@ -3924,13 +3921,13 @@
         <v>186920</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>435</v>
@@ -3939,7 +3936,7 @@
         <v>453853</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>259</v>
@@ -3951,7 +3948,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>200</v>
@@ -4002,7 +3999,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>209</v>
@@ -4032,7 +4029,7 @@
         <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>336</v>
@@ -4041,13 +4038,13 @@
         <v>357724</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4059,13 @@
         <v>925197</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>638</v>
@@ -4077,13 +4074,13 @@
         <v>652775</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1503</v>
@@ -4092,18 +4089,18 @@
         <v>1577972</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4115,13 +4112,13 @@
         <v>15644</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4130,13 +4127,13 @@
         <v>35524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4145,13 +4142,13 @@
         <v>51167</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4163,13 @@
         <v>41883</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -4181,13 +4178,13 @@
         <v>45256</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -4196,19 +4193,19 @@
         <v>87139</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>86</v>
@@ -4217,13 +4214,13 @@
         <v>95537</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H18" s="7">
         <v>69</v>
@@ -4232,13 +4229,13 @@
         <v>68746</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>155</v>
@@ -4247,19 +4244,19 @@
         <v>164283</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>82</v>
@@ -4268,13 +4265,13 @@
         <v>89120</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -4283,13 +4280,13 @@
         <v>64558</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -4298,7 +4295,7 @@
         <v>153679</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>310</v>
@@ -4310,7 +4307,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>101</v>
@@ -4352,10 +4349,10 @@
         <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4367,13 @@
         <v>350608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>299</v>
@@ -4385,13 +4382,13 @@
         <v>308453</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>620</v>
@@ -4400,13 +4397,13 @@
         <v>659061</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4420,13 @@
         <v>135414</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -4438,13 +4435,13 @@
         <v>119970</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>47</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>238</v>
@@ -4453,13 +4450,13 @@
         <v>255384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4471,13 @@
         <v>194496</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>156</v>
@@ -4489,13 +4486,13 @@
         <v>158207</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>339</v>
@@ -4504,19 +4501,19 @@
         <v>352702</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>365</v>
@@ -4525,13 +4522,13 @@
         <v>394611</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
         <v>271</v>
@@ -4540,13 +4537,13 @@
         <v>271997</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M24" s="7">
         <v>636</v>
@@ -4555,19 +4552,19 @@
         <v>666608</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>303</v>
@@ -4576,13 +4573,13 @@
         <v>321894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>237</v>
@@ -4591,13 +4588,13 @@
         <v>239406</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>540</v>
@@ -4606,19 +4603,19 @@
         <v>561300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>48</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>345</v>
@@ -4627,13 +4624,13 @@
         <v>372509</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="H26" s="7">
         <v>231</v>
@@ -4642,13 +4639,13 @@
         <v>243735</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>87</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>576</v>
@@ -4657,13 +4654,13 @@
         <v>616244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4675,13 @@
         <v>1418924</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>1009</v>
@@ -4693,13 +4690,13 @@
         <v>1033315</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>2329</v>
@@ -4708,18 +4705,18 @@
         <v>2452238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4738,7 +4735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C4AD7A-431C-4D2B-8513-E76D768DCF31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44495CD3-BA66-4385-A934-203921509C05}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4755,7 +4752,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4862,13 +4859,13 @@
         <v>3976</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4877,13 +4874,13 @@
         <v>4604</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -4892,13 +4889,13 @@
         <v>8579</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>369</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4910,13 @@
         <v>5352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4928,13 +4925,13 @@
         <v>1976</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4943,19 +4940,19 @@
         <v>7328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>13</v>
@@ -4964,13 +4961,13 @@
         <v>14239</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4979,13 +4976,13 @@
         <v>8253</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -4994,19 +4991,19 @@
         <v>22491</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
@@ -5015,13 +5012,13 @@
         <v>6401</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>391</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5030,13 +5027,13 @@
         <v>2044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5045,19 +5042,19 @@
         <v>8445</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>394</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -5066,13 +5063,13 @@
         <v>3420</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>398</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5099,10 +5096,10 @@
         <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5114,13 @@
         <v>33387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>32</v>
@@ -5132,13 +5129,13 @@
         <v>19621</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -5147,18 +5144,18 @@
         <v>53008</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5170,13 +5167,13 @@
         <v>41650</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -5185,13 +5182,13 @@
         <v>56631</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -5200,13 +5197,13 @@
         <v>98281</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5218,13 @@
         <v>45847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -5236,13 +5233,13 @@
         <v>40783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M11" s="7">
         <v>83</v>
@@ -5251,19 +5248,19 @@
         <v>86630</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>71</v>
@@ -5272,10 +5269,10 @@
         <v>79105</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>199</v>
+        <v>420</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>421</v>
@@ -5290,10 +5287,10 @@
         <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>213</v>
+        <v>423</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>165</v>
@@ -5302,10 +5299,10 @@
         <v>147090</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>426</v>
@@ -5314,7 +5311,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>44</v>
@@ -5359,13 +5356,13 @@
         <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>58</v>
@@ -5374,13 +5371,13 @@
         <v>116920</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -5389,13 +5386,13 @@
         <v>45581</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
@@ -5404,13 +5401,13 @@
         <v>162502</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5422,13 @@
         <v>330948</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>328</v>
@@ -5440,13 +5437,13 @@
         <v>250244</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>574</v>
@@ -5455,18 +5452,18 @@
         <v>581192</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5478,13 +5475,13 @@
         <v>22005</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5493,10 +5490,10 @@
         <v>19944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>446</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>447</v>
@@ -5529,13 +5526,13 @@
         <v>10177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>451</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5544,10 +5541,10 @@
         <v>8275</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>453</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>454</v>
@@ -5559,7 +5556,7 @@
         <v>18451</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>455</v>
@@ -5571,7 +5568,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>28</v>
@@ -5598,10 +5595,10 @@
         <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -5610,19 +5607,19 @@
         <v>59037</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>463</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>315</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>26</v>
@@ -5631,13 +5628,13 @@
         <v>26142</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -5646,13 +5643,13 @@
         <v>29785</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -5664,16 +5661,16 @@
         <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>34</v>
@@ -5682,13 +5679,13 @@
         <v>39790</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -5700,10 +5697,10 @@
         <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
@@ -5712,13 +5709,13 @@
         <v>69218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5730,13 @@
         <v>130948</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>145</v>
@@ -5748,13 +5745,13 @@
         <v>113634</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>260</v>
@@ -5763,13 +5760,13 @@
         <v>244582</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5783,13 @@
         <v>67630</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>107</v>
@@ -5801,13 +5798,13 @@
         <v>81179</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
         <v>168</v>
@@ -5816,13 +5813,13 @@
         <v>148809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5834,13 @@
         <v>61375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>211</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -5852,13 +5849,13 @@
         <v>51035</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>112</v>
@@ -5867,19 +5864,19 @@
         <v>112410</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>112</v>
@@ -5888,13 +5885,13 @@
         <v>126178</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H24" s="7">
         <v>142</v>
@@ -5903,13 +5900,13 @@
         <v>102440</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>498</v>
+        <v>179</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>499</v>
+        <v>354</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M24" s="7">
         <v>254</v>
@@ -5918,19 +5915,19 @@
         <v>228618</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>502</v>
+        <v>265</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>77</v>
@@ -5939,13 +5936,13 @@
         <v>79969</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
@@ -5954,13 +5951,13 @@
         <v>71092</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>508</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>509</v>
+        <v>423</v>
       </c>
       <c r="M25" s="7">
         <v>170</v>
@@ -5969,19 +5966,19 @@
         <v>151061</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>96</v>
@@ -5990,13 +5987,13 @@
         <v>160130</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H26" s="7">
         <v>99</v>
@@ -6005,13 +6002,13 @@
         <v>77753</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>517</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>518</v>
+        <v>43</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
@@ -6020,13 +6017,13 @@
         <v>237884</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>32</v>
+        <v>517</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6038,13 @@
         <v>495283</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>505</v>
@@ -6056,13 +6053,13 @@
         <v>383499</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>899</v>
@@ -6071,18 +6068,18 @@
         <v>878782</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6708-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B49C910-91BF-4F93-9E19-5A63B89F4F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40752693-BFE7-4022-B01F-7EE986D34625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBEEFE8F-F759-40DE-B4C6-4B34DDC85C2D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{123B67E6-DD04-49CD-B3A3-8456ED12A154}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="529">
   <si>
     <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2012 (Tasa respuesta: 33,83%)</t>
   </si>
@@ -1138,466 +1138,493 @@
     <t>Población según si se tiene en cuenta su opinión cuando se le asignan las tareas en 2023 (Tasa respuesta: 10,29%)</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>41,78%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>10,07%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF38843-D308-42EE-B525-F16DBBAD9D85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9675D9D2-6E50-4AF5-B2C4-A05161FF954A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3372,7 +3399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120CE9A4-F95F-4D89-B2BE-0E0CF0BB9DC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01E902F-8146-490B-81A7-9C6E46BC103E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4651,7 +4678,7 @@
         <v>576</v>
       </c>
       <c r="N26" s="7">
-        <v>616244</v>
+        <v>616245</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>362</v>
@@ -4702,7 +4729,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4735,7 +4762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44495CD3-BA66-4385-A934-203921509C05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7918FC7D-179C-49F6-94D3-55E7A5F01BD8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4856,7 +4883,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>3976</v>
+        <v>4254</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>366</v>
@@ -4865,16 +4892,16 @@
         <v>367</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>4604</v>
+        <v>3975</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>368</v>
+        <v>213</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>369</v>
@@ -4886,7 +4913,7 @@
         <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>8579</v>
+        <v>8230</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>371</v>
@@ -4895,7 +4922,7 @@
         <v>372</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,10 +4934,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>5352</v>
+        <v>4688</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>209</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>374</v>
@@ -4922,7 +4949,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>1976</v>
+        <v>1839</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>376</v>
@@ -4937,16 +4964,16 @@
         <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>7328</v>
+        <v>6526</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,46 +4985,46 @@
         <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>14239</v>
+        <v>14678</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>8253</v>
+        <v>7334</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>22491</v>
+        <v>22012</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,46 +5036,46 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>6401</v>
+        <v>6148</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2044</v>
+        <v>1801</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>8445</v>
+        <v>7949</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,46 +5087,46 @@
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>3420</v>
+        <v>3174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>2745</v>
+        <v>2603</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>6164</v>
+        <v>5777</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>405</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,7 +5138,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>33387</v>
+        <v>32942</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -5126,7 +5153,7 @@
         <v>32</v>
       </c>
       <c r="I9" s="7">
-        <v>19621</v>
+        <v>17552</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5141,7 +5168,7 @@
         <v>65</v>
       </c>
       <c r="N9" s="7">
-        <v>53008</v>
+        <v>50494</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5164,46 +5191,46 @@
         <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>41650</v>
+        <v>38243</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>408</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
       </c>
       <c r="I10" s="7">
-        <v>56631</v>
+        <v>50756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
       </c>
       <c r="N10" s="7">
-        <v>98281</v>
+        <v>88999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,46 +5242,46 @@
         <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>45847</v>
+        <v>42379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>417</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
       </c>
       <c r="I11" s="7">
-        <v>40783</v>
+        <v>36515</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M11" s="7">
         <v>83</v>
       </c>
       <c r="N11" s="7">
-        <v>86630</v>
+        <v>78894</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>416</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,46 +5293,46 @@
         <v>71</v>
       </c>
       <c r="D12" s="7">
-        <v>79105</v>
+        <v>78372</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>333</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H12" s="7">
         <v>94</v>
       </c>
       <c r="I12" s="7">
-        <v>67985</v>
+        <v>62025</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M12" s="7">
         <v>165</v>
       </c>
       <c r="N12" s="7">
-        <v>147090</v>
+        <v>140397</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>429</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,46 +5344,46 @@
         <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>47427</v>
+        <v>45640</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>427</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>39263</v>
+        <v>36760</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
       </c>
       <c r="N13" s="7">
-        <v>86690</v>
+        <v>82400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,46 +5395,46 @@
         <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>116920</v>
+        <v>307169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
       </c>
       <c r="I14" s="7">
-        <v>45581</v>
+        <v>42227</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>117</v>
       </c>
       <c r="N14" s="7">
-        <v>162502</v>
+        <v>349396</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,7 +5446,7 @@
         <v>246</v>
       </c>
       <c r="D15" s="7">
-        <v>330948</v>
+        <v>511804</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5434,7 +5461,7 @@
         <v>328</v>
       </c>
       <c r="I15" s="7">
-        <v>250244</v>
+        <v>228283</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5449,7 +5476,7 @@
         <v>574</v>
       </c>
       <c r="N15" s="7">
-        <v>581192</v>
+        <v>740087</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5472,46 +5499,46 @@
         <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>22005</v>
+        <v>20344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>19944</v>
+        <v>18053</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>41949</v>
+        <v>38397</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>448</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,46 +5550,46 @@
         <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>10177</v>
+        <v>9745</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>8275</v>
+        <v>7466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>459</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>460</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>454</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
       </c>
       <c r="N17" s="7">
-        <v>18451</v>
+        <v>17211</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,46 +5601,46 @@
         <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>32834</v>
+        <v>31078</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
       </c>
       <c r="I18" s="7">
-        <v>26203</v>
+        <v>24238</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>467</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
       </c>
       <c r="N18" s="7">
-        <v>59037</v>
+        <v>55316</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,46 +5652,46 @@
         <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>26142</v>
+        <v>24294</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>29785</v>
+        <v>28314</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
       </c>
       <c r="N19" s="7">
-        <v>55927</v>
+        <v>52608</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>478</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,46 +5703,46 @@
         <v>34</v>
       </c>
       <c r="D20" s="7">
-        <v>39790</v>
+        <v>38365</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
       </c>
       <c r="I20" s="7">
-        <v>29427</v>
+        <v>26950</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
       </c>
       <c r="N20" s="7">
-        <v>69218</v>
+        <v>65314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,7 +5754,7 @@
         <v>115</v>
       </c>
       <c r="D21" s="7">
-        <v>130948</v>
+        <v>123826</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5742,7 +5769,7 @@
         <v>145</v>
       </c>
       <c r="I21" s="7">
-        <v>113634</v>
+        <v>105020</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5757,7 +5784,7 @@
         <v>260</v>
       </c>
       <c r="N21" s="7">
-        <v>244582</v>
+        <v>228846</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5780,46 +5807,46 @@
         <v>61</v>
       </c>
       <c r="D22" s="7">
-        <v>67630</v>
+        <v>62842</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>107</v>
       </c>
       <c r="I22" s="7">
-        <v>81179</v>
+        <v>72784</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>168</v>
       </c>
       <c r="N22" s="7">
-        <v>148809</v>
+        <v>135626</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>48</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,46 +5858,46 @@
         <v>48</v>
       </c>
       <c r="D23" s="7">
-        <v>61375</v>
+        <v>56812</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
       </c>
       <c r="I23" s="7">
-        <v>51035</v>
+        <v>45819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M23" s="7">
         <v>112</v>
       </c>
       <c r="N23" s="7">
-        <v>112410</v>
+        <v>102632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,46 +5909,46 @@
         <v>112</v>
       </c>
       <c r="D24" s="7">
-        <v>126178</v>
+        <v>124128</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H24" s="7">
         <v>142</v>
       </c>
       <c r="I24" s="7">
-        <v>102440</v>
+        <v>93597</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>179</v>
+        <v>510</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="M24" s="7">
         <v>254</v>
       </c>
       <c r="N24" s="7">
-        <v>228618</v>
+        <v>217724</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>265</v>
+        <v>513</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,46 +5960,46 @@
         <v>77</v>
       </c>
       <c r="D25" s="7">
-        <v>79969</v>
+        <v>76083</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
       </c>
       <c r="I25" s="7">
-        <v>71092</v>
+        <v>66874</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>476</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="M25" s="7">
         <v>170</v>
       </c>
       <c r="N25" s="7">
-        <v>151061</v>
+        <v>142957</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,46 +6011,46 @@
         <v>96</v>
       </c>
       <c r="D26" s="7">
-        <v>160130</v>
+        <v>348708</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="H26" s="7">
         <v>99</v>
       </c>
       <c r="I26" s="7">
-        <v>77753</v>
+        <v>71780</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>43</v>
+        <v>526</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
       </c>
       <c r="N26" s="7">
-        <v>237884</v>
+        <v>420487</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>518</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,7 +6062,7 @@
         <v>394</v>
       </c>
       <c r="D27" s="7">
-        <v>495283</v>
+        <v>668573</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6050,7 +6077,7 @@
         <v>505</v>
       </c>
       <c r="I27" s="7">
-        <v>383499</v>
+        <v>350855</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6065,7 +6092,7 @@
         <v>899</v>
       </c>
       <c r="N27" s="7">
-        <v>878782</v>
+        <v>1019427</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
